--- a/Code/validation/validationCo-60.xlsx
+++ b/Code/validation/validationCo-60.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\Code\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AD8A2D-7F8A-4C92-B22A-F68D9DD20DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF0E6A2-98FA-4489-B50D-FA1842D09D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Asymetry" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Reference Co-60 (NIST)</t>
   </si>
@@ -112,17 +112,51 @@
   <si>
     <t>LC /keV-1</t>
   </si>
+  <si>
+    <t>u(eff)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start </t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method </t>
+  </si>
+  <si>
+    <t>Nelder-Mead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue </t>
+  </si>
+  <si>
+    <t>dependant of the initial guess</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,16 +185,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -168,29 +228,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -200,12 +343,64 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -224,7 +419,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -243,7 +438,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -262,7 +457,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -281,10 +476,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.000%"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="0.000"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -314,6 +531,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deviation to KCRV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -354,7 +596,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$14</c:f>
+              <c:f>Asymetry!$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -387,10 +629,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$15:$A$22</c:f>
+              <c:f>Asymetry!$A$15:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -414,16 +656,43 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$15:$D$22</c:f>
+              <c:f>Asymetry!$E$15:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2.6416163810667914E-2</c:v>
                 </c:pt>
@@ -447,6 +716,33 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-2.2656405807452984E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3118909806824099E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1761314621101526E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9496344853693355E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7124786813385047E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3620162056846574E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5541375632182088E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2771832433528019E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7944003959827768E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5983760326867547E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -455,6 +751,2035 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D742-4BCA-8E71-41EBB9C8451F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Analytical model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Asymetry!$A$14:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Asymetry!$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.615121646295071E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F3A8-48AF-978E-D7B93578E087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1655640944"/>
+        <c:axId val="1655651504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1655640944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>MC trials</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655651504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1655651504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>Deviation to KCRV </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655640944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Free parameters</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Global</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Asymetry!$A$15:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Asymetry!$F$15:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.3071666916143501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3209213268092199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3383330375921301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3071647456267499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3030254629629601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3142096779969401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3137062757201601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.31956629774305</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3227336272225201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3278649385894501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3254062162715099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.32083150655864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.32431181842059</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.34982444438751</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2056104252400499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.33391183122806</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2100420899777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB19-42D6-94BD-DE210F0C230D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Asymetry!$A$15:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Asymetry!$G$15:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.2868519199999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3084471200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.28764726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.27962274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2581458299999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3452672000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.29483796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3383861800000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.29720451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.30347038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3094954299999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.30214253</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3103681300000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3478365999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.21353909</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.30415967</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2126448599999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB19-42D6-94BD-DE210F0C230D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Asymetry!$A$15:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Asymetry!$H$15:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.29949213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3095473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.34610048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3732884299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3527569399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3571634699999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3437608000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3392959</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3628018500000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3375309900000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.37015179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.33673598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4089489799999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3688335199999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1620987700000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4038886500000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2229515799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BB19-42D6-94BD-DE210F0C230D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Asymetry!$A$15:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Asymetry!$I$15:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.33515603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.34476956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.38125137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2685830600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2981736100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2401983700000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.30252006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2810168200000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.30819452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3425934399999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.29657143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3236160100000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2536183400000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3328032000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2411934200000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2936871700000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.19452983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BB19-42D6-94BD-DE210F0C230D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1655640944"/>
+        <c:axId val="1655651504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1655640944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>MC trials</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655651504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1655651504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" i="1" baseline="0"/>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> /keV</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:t>-1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655640944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deviation to KCRV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>error l0 = 0.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Asymetry!$C$46:$C$54</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.2350578762301402E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.7151998059231201E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3704898814054099E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.9299974735150303E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.2552150339764498E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4370764873652899E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.9328846167121999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3103086059575401E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Asymetry!$C$46:$C$54</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.2350578762301402E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.7151998059231201E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.3704898814054099E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.9299974735150303E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.2552150339764498E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.4370764873652899E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.9328846167121999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3103086059575401E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Asymetry!$A$46:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Asymetry!$E$46:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.6416163810918381E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6361013738029238E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.2617610817605751E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4475521968595926E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7637464141415649E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.0977264985676554E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7516285093787118E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.1770950027683078E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.03912470422474E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A678-4D1B-A7D3-B0CCB2DCF299}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Analytical model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Asymetry!$A$14:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Asymetry!$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.615121646295071E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A678-4D1B-A7D3-B0CCB2DCF299}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>error L0 = 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Asymetry!$C$59:$C$66</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>9.0054235389743999E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3457292431222801E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.8425708328747996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.45806051909002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.4345580902809198E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.96694676070435E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.7363097635930401E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.90274375636109E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Asymetry!$C$59:$C$66</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>9.0054235389743999E-8</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3457292431222801E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.8425708328747996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.45806051909002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.4345580902809198E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.96694676070435E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.7363097635930401E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.90274375636109E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Asymetry!$A$59:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Asymetry!$E$59:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.6416066377851877E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3945849913208583E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2014062778571866E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1976978569415753E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.1970812502546408E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1163970037640922E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.709510962779718E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.9911984637518447E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A678-4D1B-A7D3-B0CCB2DCF299}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -813,6 +3138,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1329,20 +3734,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1367,23 +4804,134 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA5509C-6121-414A-B371-82A374AE701C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>325755</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>162878</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FAB523-B3E3-474C-ABFA-832103FD1FA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE154909-7646-477D-8B60-509F398D009F}" name="Table1" displayName="Table1" ref="A14:H22" totalsRowShown="0">
-  <autoFilter ref="A14:H22" xr:uid="{CE154909-7646-477D-8B60-509F398D009F}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE154909-7646-477D-8B60-509F398D009F}" name="Table1" displayName="Table1" ref="A14:I31" totalsRowShown="0">
+  <autoFilter ref="A14:I31" xr:uid="{CE154909-7646-477D-8B60-509F398D009F}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DDAABB74-83B7-4A9A-A978-ACBC6E410C19}" name="N"/>
-    <tableColumn id="2" xr3:uid="{0AA70936-8F84-45A0-BDA6-0B48F50D8456}" name="eff (stochastic)" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0AA70936-8F84-45A0-BDA6-0B48F50D8456}" name="eff (stochastic)" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{CC8B2236-DD4D-4D4A-B450-AF4A42700DB8}" name="u(eff)" dataDxfId="17" dataCellStyle="Percent"/>
     <tableColumn id="3" xr3:uid="{F519117B-BD8C-4D86-8925-34E52A9B33AA}" name="time /s"/>
-    <tableColumn id="4" xr3:uid="{4C05EF6D-660F-41D6-BD8A-A706F835288E}" name="error" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{4C05EF6D-660F-41D6-BD8A-A706F835288E}" name="error" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>B15/B$5-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C52CC8CE-0CF9-4BDD-85DA-B7B7E424ADFB}" name="L /keV-1" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{FF4F8F5D-D5E2-4E8C-95FD-6BDE1A995214}" name="LA /keV-1" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{AD370BAA-110E-45FB-8017-6C63B1F0C6DC}" name="LB /keV-1" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{0D9EDC29-DB17-43EE-9A9E-873BA5DEC89A}" name="LC /keV-1" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{C52CC8CE-0CF9-4BDD-85DA-B7B7E424ADFB}" name="L /keV-1" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{FF4F8F5D-D5E2-4E8C-95FD-6BDE1A995214}" name="LA /keV-1" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{AD370BAA-110E-45FB-8017-6C63B1F0C6DC}" name="LB /keV-1" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{0D9EDC29-DB17-43EE-9A9E-873BA5DEC89A}" name="LC /keV-1" dataDxfId="12" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}" name="Table2" displayName="Table2" ref="A45:F54" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A45:F54" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2A7212F2-06BB-4D63-B68E-00B66F9BA6D8}" name="N"/>
+    <tableColumn id="2" xr3:uid="{D4B2378E-DEE0-403B-9A01-7D7DAF895C2A}" name="eff (stochastic)" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{DCBF8CA2-4B7B-45F6-A4C1-21C25175DEC1}" name="std" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{76B9D488-065E-48FD-8C5C-DFB2F4A7C18C}" name="time /s"/>
+    <tableColumn id="4" xr3:uid="{B3632296-46F8-4FFB-B621-41267E9BD825}" name="error" dataDxfId="6">
+      <calculatedColumnFormula>B46/B$5-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{FC6E204E-4636-4F11-8582-10674B968FF7}" name="L /keV-1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}" name="Table24" displayName="Table24" ref="A58:F66" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A58:F66" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8F2C12A2-FD44-4CE7-AE3E-946D17F8E77D}" name="N"/>
+    <tableColumn id="2" xr3:uid="{DFE623A6-4D03-4FC8-8636-F552CAFF9337}" name="eff (stochastic)" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{79B4CF1D-0184-4DC2-9C5F-BA40F6EAABC6}" name="std" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{7F75FB14-269C-48EF-ACB6-BFCBC8D8F3E9}" name="time /s"/>
+    <tableColumn id="4" xr3:uid="{5373102D-9EEB-4008-B4E8-DDFBFA8B5659}" name="error" dataDxfId="0">
+      <calculatedColumnFormula>B59/B$5-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{2EA1A9A7-9F1E-4C41-8D47-473AFC686CDF}" name="L /keV-1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1652,24 +5200,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>13</v>
       </c>
@@ -1680,7 +5228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>15</v>
       </c>
@@ -1691,7 +5239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +5248,7 @@
         <v>0.9742636907501151</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1708,11 +5256,11 @@
         <v>0.9788</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="19">
         <f>E3</f>
         <v>0.9742636907501151</v>
       </c>
@@ -1739,7 +5287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +5301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1773,39 +5321,59 @@
         <v>1.2941300000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
         <v>0.99234341945900195</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <f>E8*1000</f>
         <v>1.3093253609752</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <f t="shared" ref="F9:H9" si="0">F8*1000</f>
         <v>1.3031999999999999</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>1.3370199999999999</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>1.29413</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
         <v>0.99275350064608003</v>
       </c>
+      <c r="F10" s="15">
+        <f>F9/$E$9</f>
+        <v>0.99532174266399465</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" ref="G10:H10" si="1">G9/$E$9</f>
+        <v>1.0211518388402503</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.9883945110756257</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1813,247 +5381,1026 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>23</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="16">
         <v>0.99999999999975597</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1"/>
+      <c r="D15">
         <v>21</v>
       </c>
-      <c r="D15" s="1">
-        <f>B15/B$5-1</f>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:E31" si="2">B15/B$5-1</f>
         <v>2.6416163810667914E-2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="10">
         <v>1.3071666916143501</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="10">
         <v>1.2868519199999999</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="10">
         <v>1.29949213</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="10">
         <v>1.33515603</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="16">
         <v>0.99999999968061704</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1"/>
+      <c r="D16">
         <v>39</v>
       </c>
-      <c r="D16" s="1">
-        <f>B16/B$5-1</f>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
         <v>2.6416163483098387E-2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="10">
         <v>1.3209213268092199</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="10">
         <v>1.3084471200000001</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="10">
         <v>1.3095473</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="10">
         <v>1.34476956</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>50</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="16">
         <v>0.97371157039186895</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1"/>
+      <c r="D17">
         <v>97</v>
       </c>
-      <c r="D17" s="1">
-        <f>B17/B$5-1</f>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
         <v>-5.6670526007296385E-4</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="10">
         <v>1.3383330375921301</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="10">
         <v>1.28764726</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="10">
         <v>1.34610048</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="10">
         <v>1.38125137</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>100</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="16">
         <v>0.98998357590445796</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1"/>
+      <c r="D18">
         <v>198</v>
       </c>
-      <c r="D18" s="1">
-        <f>B18/B$5-1</f>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
         <v>1.6135144215668751E-2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="10">
         <v>1.3071647456267499</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="10">
         <v>1.27962274</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="10">
         <v>1.3732884299999999</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="10">
         <v>1.2685830600000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>200</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="16">
         <v>0.96555246464794797</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1"/>
+      <c r="D19">
         <v>380</v>
       </c>
-      <c r="D19" s="1">
-        <f>B19/B$5-1</f>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
         <v>-8.9413432778758795E-3</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="10">
         <v>1.3030254629629601</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="10">
         <v>1.2581458299999999</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="10">
         <v>1.3527569399999999</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="10">
         <v>1.2981736100000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>500</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="16">
         <v>0.98093903776333202</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1"/>
+      <c r="D20">
         <v>949</v>
       </c>
-      <c r="D20" s="1">
-        <f>B20/B$5-1</f>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
         <v>6.8516840734127449E-3</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="10">
         <v>1.3142096779969401</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="10">
         <v>1.3452672000000001</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="10">
         <v>1.3571634699999999</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="10">
         <v>1.2401983700000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1000</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="16">
         <v>0.97841463217168401</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1"/>
+      <c r="D21">
         <v>1744</v>
       </c>
-      <c r="D21" s="1">
-        <f>B21/B$5-1</f>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
         <v>4.2605933701305165E-3</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="10">
         <v>1.3137062757201601</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="10">
         <v>1.29483796</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="10">
         <v>1.3437608000000001</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="10">
         <v>1.30252006</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2000</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="16">
         <v>0.974241617436574</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1"/>
+      <c r="D22">
         <v>3778</v>
       </c>
-      <c r="D22" s="1">
-        <f>B22/B$5-1</f>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
         <v>-2.2656405807452984E-5</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="10">
         <v>1.31956629774305</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="10">
         <v>1.3383861800000001</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H22" s="10">
         <v>1.3392959</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="10">
         <v>1.2810168200000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3000</v>
+      </c>
+      <c r="B23" s="16">
+        <v>0.979438873261817</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23">
+        <v>5904</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>5.3118909806824099E-3</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1.3227336272225201</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1.29720451</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1.3628018500000001</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1.30819452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4000</v>
+      </c>
+      <c r="B24" s="16">
+        <v>0.97540955292919795</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.1058803879757601E-3</v>
+      </c>
+      <c r="D24">
+        <v>7765</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1761314621101526E-3</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1.3278649385894501</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1.30347038</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1.3375309900000001</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1.3425934399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5000</v>
+      </c>
+      <c r="B25" s="16">
+        <v>0.97811167622094497</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25">
+        <v>8584</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9496344853693355E-3</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1.3254062162715099</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1.3094954299999999</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1.37015179</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1.29657143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>6000</v>
+      </c>
+      <c r="B26" s="16">
+        <v>0.97788062393202702</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.57705246774949E-3</v>
+      </c>
+      <c r="D26" s="17">
+        <v>10242.793486</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7124786813385047E-3</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1.32083150655864</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1.30214253</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1.33673598</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1.3236160100000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>7000</v>
+      </c>
+      <c r="B27" s="16">
+        <v>0.975590653685527</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.5623459098259699E-3</v>
+      </c>
+      <c r="D27" s="17">
+        <v>12233</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3620162056846574E-3</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1.32431181842059</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1.3103681300000001</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1.4089489799999999</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1.2536183400000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>8000</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0.97967488531139002</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.3326393393106801E-3</v>
+      </c>
+      <c r="D28" s="17">
+        <v>15302.657252999999</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>5.5541375632182088E-3</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1.34982444438751</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1.3478365999999999</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1.3688335199999999</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1.3328032000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>9000</v>
+      </c>
+      <c r="B29" s="20">
+        <v>0.97432484706725697</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.4294584916424401E-3</v>
+      </c>
+      <c r="D29" s="17">
+        <v>14955</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2771832433528019E-5</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1.2056104252400499</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1.21353909</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1.1620987700000001</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1.2411934200000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10000</v>
+      </c>
+      <c r="B30" s="16">
+        <v>0.97698617359333895</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.27538214027621E-3</v>
+      </c>
+      <c r="D30">
+        <v>19231</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7944003959827768E-3</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1.33391183122806</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1.30415967</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1.4038886500000001</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1.2936871700000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>20000</v>
+      </c>
+      <c r="B31" s="16">
+        <v>0.97582093048292695</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9.2558898292303699E-4</v>
+      </c>
+      <c r="D31">
+        <v>34634</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5983760326867547E-3</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1.2100420899777</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1.2126448599999999</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1.2229515799999999</v>
+      </c>
+      <c r="I31" s="10">
+        <v>1.19452983</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F35" s="15">
+        <f t="shared" ref="F35:H35" si="3">G21/$F$23</f>
+        <v>0.97891059344949483</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0158967552837022</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" si="3"/>
+        <v>0.98471833874446468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F36" s="15">
+        <f t="shared" ref="F36:H36" si="4">G22/$F$23</f>
+        <v>1.0118334882060473</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="4"/>
+        <v>1.0125212457267434</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="4"/>
+        <v>0.96846167182570453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F37" s="15">
+        <f>G23/$F$23</f>
+        <v>0.98069972918423032</v>
+      </c>
+      <c r="G37" s="15">
+        <f>H23/$F$23</f>
+        <v>1.0302919816604461</v>
+      </c>
+      <c r="H37" s="15">
+        <f>I23/$F$23</f>
+        <v>0.98900828789463124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F38" s="15">
+        <f t="shared" ref="F38:H38" si="5">G24/$F$23</f>
+        <v>0.98543679027577979</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="5"/>
+        <v>1.0111869559168549</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="5"/>
+        <v>1.0150142193172949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>10</v>
+      </c>
+      <c r="B46" s="11">
+        <v>1</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>5.2425560000000004</v>
+      </c>
+      <c r="E46" s="11">
+        <f t="shared" ref="E46:E49" si="6">B46/B$5-1</f>
+        <v>2.6416163810918381E-2</v>
+      </c>
+      <c r="F46" s="12">
+        <v>4.76132539402004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>20</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.99994626928644204</v>
+      </c>
+      <c r="C47" s="13">
+        <v>5.2350578762301402E-5</v>
+      </c>
+      <c r="D47" s="9">
+        <v>11.377882</v>
+      </c>
+      <c r="E47" s="13">
+        <f t="shared" si="6"/>
+        <v>2.6361013738029238E-2</v>
+      </c>
+      <c r="F47" s="14">
+        <v>1.56230482634155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>50</v>
+      </c>
+      <c r="B48" s="11">
+        <v>0.97425759014365299</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1.7151998059231201E-2</v>
+      </c>
+      <c r="D48" s="7">
+        <v>28.254159999999999</v>
+      </c>
+      <c r="E48" s="11">
+        <f t="shared" si="6"/>
+        <v>-6.2617610817605751E-6</v>
+      </c>
+      <c r="F48" s="12">
+        <v>1.0019229842906301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>100</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.99810930311627499</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1.3704898814054099E-3</v>
+      </c>
+      <c r="D49" s="9">
+        <v>55.383166000000003</v>
+      </c>
+      <c r="E49" s="13">
+        <f t="shared" si="6"/>
+        <v>2.4475521968595926E-2</v>
+      </c>
+      <c r="F49" s="14">
+        <v>1.57546064880198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1000</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.97598204484110396</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3.9299974735150303E-3</v>
+      </c>
+      <c r="D50">
+        <v>568.85709999999995</v>
+      </c>
+      <c r="E50" s="1">
+        <f>B50/B$5-1</f>
+        <v>1.7637464141415649E-3</v>
+      </c>
+      <c r="F50">
+        <v>0.97567425102328897</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2000</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.97027142460793603</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3.2552150339764498E-3</v>
+      </c>
+      <c r="D51">
+        <v>1177.683</v>
+      </c>
+      <c r="E51" s="1">
+        <f>B51/B$5-1</f>
+        <v>-4.0977264985676554E-3</v>
+      </c>
+      <c r="F51">
+        <v>0.99882342212500197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3000</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.97426100993836795</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.4370764873652899E-3</v>
+      </c>
+      <c r="D52">
+        <v>1751.653804</v>
+      </c>
+      <c r="E52" s="23">
+        <f>B52/B$5-1</f>
+        <v>-2.7516285093787118E-6</v>
+      </c>
+      <c r="F52">
+        <v>1.0688837073264801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5000</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.97356445244348899</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.9328846167121999E-3</v>
+      </c>
+      <c r="D53">
+        <v>2804.289049</v>
+      </c>
+      <c r="E53" s="23">
+        <f>B53/B$5-1</f>
+        <v>-7.1770950027683078E-4</v>
+      </c>
+      <c r="F53">
+        <v>1.1927623679358801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>10000</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.97475463437336396</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.3103086059575401E-3</v>
+      </c>
+      <c r="D54">
+        <v>5691.679948</v>
+      </c>
+      <c r="E54" s="23">
+        <f>B54/B$5-1</f>
+        <v>5.03912470422474E-4</v>
+      </c>
+      <c r="F54">
+        <v>1.0213270926685001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>10</v>
+      </c>
+      <c r="B59" s="11">
+        <v>0.99999990507450098</v>
+      </c>
+      <c r="C59" s="11">
+        <v>9.0054235389743999E-8</v>
+      </c>
+      <c r="D59" s="7">
+        <v>5.4687739999999998</v>
+      </c>
+      <c r="E59" s="11">
+        <f t="shared" ref="E59:E62" si="7">B59/B$5-1</f>
+        <v>2.6416066377851877E-2</v>
+      </c>
+      <c r="F59" s="12">
+        <v>1.3788447930534999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>20</v>
+      </c>
+      <c r="B60" s="13">
+        <v>0.99759326286470595</v>
+      </c>
+      <c r="C60" s="13">
+        <v>2.3457292431222801E-3</v>
+      </c>
+      <c r="D60" s="9">
+        <v>11.343603</v>
+      </c>
+      <c r="E60" s="13">
+        <f t="shared" si="7"/>
+        <v>2.3945849913208583E-2</v>
+      </c>
+      <c r="F60" s="14">
+        <v>1.38270283314251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>50</v>
+      </c>
+      <c r="B61" s="11">
+        <v>0.98596855589367005</v>
+      </c>
+      <c r="C61" s="11">
+        <v>8.8425708328747996E-3</v>
+      </c>
+      <c r="D61" s="7">
+        <v>28.603586</v>
+      </c>
+      <c r="E61" s="11">
+        <f t="shared" si="7"/>
+        <v>1.2014062778571866E-2</v>
+      </c>
+      <c r="F61" s="12">
+        <v>0.85410197157480905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>100</v>
+      </c>
+      <c r="B62" s="13">
+        <v>0.98030188273837304</v>
+      </c>
+      <c r="C62" s="13">
+        <v>9.45806051909002E-3</v>
+      </c>
+      <c r="D62" s="9">
+        <v>55.921340999999998</v>
+      </c>
+      <c r="E62" s="13">
+        <f t="shared" si="7"/>
+        <v>6.1976978569415753E-3</v>
+      </c>
+      <c r="F62" s="14">
+        <v>0.98030188273837304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1000</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.97395221073226501</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4.4345580902809198E-3</v>
+      </c>
+      <c r="D63">
+        <v>556.997705</v>
+      </c>
+      <c r="E63" s="1">
+        <f>B63/B$5-1</f>
+        <v>-3.1970812502546408E-4</v>
+      </c>
+      <c r="F63">
+        <v>1.05572808970182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2000</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.97446988362571296</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2.96694676070435E-3</v>
+      </c>
+      <c r="D64">
+        <v>1113.903869</v>
+      </c>
+      <c r="E64" s="23">
+        <f>B64/B$5-1</f>
+        <v>2.1163970037640922E-4</v>
+      </c>
+      <c r="F64">
+        <v>1.0143478195065401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3000</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.96870112152713905</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2.7363097635930401E-3</v>
+      </c>
+      <c r="D65">
+        <v>1702.973512</v>
+      </c>
+      <c r="E65" s="23">
+        <f>B65/B$5-1</f>
+        <v>-5.709510962779718E-3</v>
+      </c>
+      <c r="F65">
+        <v>1.0212862361646</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>5000</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.97377741640645898</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1.90274375636109E-3</v>
+      </c>
+      <c r="D66">
+        <v>2867.006691</v>
+      </c>
+      <c r="E66" s="23">
+        <f>B66/B$5-1</f>
+        <v>-4.9911984637518447E-4</v>
+      </c>
+      <c r="F66">
+        <v>1.0789649162858199</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Code/validation/validationCo-60.xlsx
+++ b/Code/validation/validationCo-60.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\Code\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF0E6A2-98FA-4489-B50D-FA1842D09D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FAD51D-8B4D-4056-8526-AF60BA6D1173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asymetry" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Reference Co-60 (NIST)</t>
   </si>
@@ -144,6 +144,24 @@
   </si>
   <si>
     <t>dependant of the initial guess</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>L/keV-1</t>
+  </si>
+  <si>
+    <t>N=10000</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>bounded</t>
   </si>
 </sst>
 </file>
@@ -307,7 +325,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
     </dxf>
@@ -2612,10 +2633,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Asymetry!$C$59:$C$66</c:f>
+                <c:f>Asymetry!$C$63:$C$71</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="9"/>
                   <c:pt idx="0">
                     <c:v>9.0054235389743999E-8</c:v>
                   </c:pt>
@@ -2640,15 +2661,18 @@
                   <c:pt idx="7">
                     <c:v>1.90274375636109E-3</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3638326289617201E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Asymetry!$C$59:$C$66</c:f>
+                <c:f>Asymetry!$C$63:$C$71</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="9"/>
                   <c:pt idx="0">
                     <c:v>9.0054235389743999E-8</c:v>
                   </c:pt>
@@ -2672,6 +2696,9 @@
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>1.90274375636109E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3638326289617201E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2712,10 +2739,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Asymetry!$A$59:$A$66</c:f>
+              <c:f>Asymetry!$A$63:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2739,16 +2766,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Asymetry!$E$59:$E$66</c:f>
+              <c:f>Asymetry!$E$63:$E$71</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.6416066377851877E-2</c:v>
                 </c:pt>
@@ -2772,6 +2802,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-4.9911984637518447E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2855328266178079E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4852,7 +4885,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>162878</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4888,30 +4921,30 @@
   <autoFilter ref="A14:I31" xr:uid="{CE154909-7646-477D-8B60-509F398D009F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DDAABB74-83B7-4A9A-A978-ACBC6E410C19}" name="N"/>
-    <tableColumn id="2" xr3:uid="{0AA70936-8F84-45A0-BDA6-0B48F50D8456}" name="eff (stochastic)" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{CC8B2236-DD4D-4D4A-B450-AF4A42700DB8}" name="u(eff)" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{0AA70936-8F84-45A0-BDA6-0B48F50D8456}" name="eff (stochastic)" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{CC8B2236-DD4D-4D4A-B450-AF4A42700DB8}" name="u(eff)" dataDxfId="18" dataCellStyle="Percent"/>
     <tableColumn id="3" xr3:uid="{F519117B-BD8C-4D86-8925-34E52A9B33AA}" name="time /s"/>
-    <tableColumn id="4" xr3:uid="{4C05EF6D-660F-41D6-BD8A-A706F835288E}" name="error" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{4C05EF6D-660F-41D6-BD8A-A706F835288E}" name="error" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>B15/B$5-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C52CC8CE-0CF9-4BDD-85DA-B7B7E424ADFB}" name="L /keV-1" dataDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{FF4F8F5D-D5E2-4E8C-95FD-6BDE1A995214}" name="LA /keV-1" dataDxfId="14" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{AD370BAA-110E-45FB-8017-6C63B1F0C6DC}" name="LB /keV-1" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{0D9EDC29-DB17-43EE-9A9E-873BA5DEC89A}" name="LC /keV-1" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{C52CC8CE-0CF9-4BDD-85DA-B7B7E424ADFB}" name="L /keV-1" dataDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{FF4F8F5D-D5E2-4E8C-95FD-6BDE1A995214}" name="LA /keV-1" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{AD370BAA-110E-45FB-8017-6C63B1F0C6DC}" name="LB /keV-1" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{0D9EDC29-DB17-43EE-9A9E-873BA5DEC89A}" name="LC /keV-1" dataDxfId="13" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}" name="Table2" displayName="Table2" ref="A45:F54" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}" name="Table2" displayName="Table2" ref="A45:F54" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A45:F54" xr:uid="{B1A0E7B8-D1BC-47E5-92B3-1AE140DABEDC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2A7212F2-06BB-4D63-B68E-00B66F9BA6D8}" name="N"/>
-    <tableColumn id="2" xr3:uid="{D4B2378E-DEE0-403B-9A01-7D7DAF895C2A}" name="eff (stochastic)" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{DCBF8CA2-4B7B-45F6-A4C1-21C25175DEC1}" name="std" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{D4B2378E-DEE0-403B-9A01-7D7DAF895C2A}" name="eff (stochastic)" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{DCBF8CA2-4B7B-45F6-A4C1-21C25175DEC1}" name="std" dataDxfId="8" dataCellStyle="Percent"/>
     <tableColumn id="3" xr3:uid="{76B9D488-065E-48FD-8C5C-DFB2F4A7C18C}" name="time /s"/>
-    <tableColumn id="4" xr3:uid="{B3632296-46F8-4FFB-B621-41267E9BD825}" name="error" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{B3632296-46F8-4FFB-B621-41267E9BD825}" name="error" dataDxfId="7">
       <calculatedColumnFormula>B46/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{FC6E204E-4636-4F11-8582-10674B968FF7}" name="L /keV-1"/>
@@ -4921,17 +4954,34 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}" name="Table24" displayName="Table24" ref="A58:F66" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A58:F66" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}" name="Table24" displayName="Table24" ref="A62:F71" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A62:F71" xr:uid="{98A4BCFE-02B5-4530-A1DC-143F7E0EE115}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8F2C12A2-FD44-4CE7-AE3E-946D17F8E77D}" name="N"/>
-    <tableColumn id="2" xr3:uid="{DFE623A6-4D03-4FC8-8636-F552CAFF9337}" name="eff (stochastic)" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{79B4CF1D-0184-4DC2-9C5F-BA40F6EAABC6}" name="std" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{DFE623A6-4D03-4FC8-8636-F552CAFF9337}" name="eff (stochastic)" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{79B4CF1D-0184-4DC2-9C5F-BA40F6EAABC6}" name="std" dataDxfId="2" dataCellStyle="Percent"/>
     <tableColumn id="3" xr3:uid="{7F75FB14-269C-48EF-ACB6-BFCBC8D8F3E9}" name="time /s"/>
-    <tableColumn id="4" xr3:uid="{5373102D-9EEB-4008-B4E8-DDFBFA8B5659}" name="error" dataDxfId="0">
-      <calculatedColumnFormula>B59/B$5-1</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{5373102D-9EEB-4008-B4E8-DDFBFA8B5659}" name="error" dataDxfId="1">
+      <calculatedColumnFormula>B63/B$5-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{2EA1A9A7-9F1E-4C41-8D47-473AFC686CDF}" name="L /keV-1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5754EABE-BCB3-4E1A-9DB8-2647BBDDC114}" name="Table5" displayName="Table5" ref="A75:F78" totalsRowShown="0">
+  <autoFilter ref="A75:F78" xr:uid="{5754EABE-BCB3-4E1A-9DB8-2647BBDDC114}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{174981E2-18F0-4578-87C4-D60BCD6AD8B8}" name="Method"/>
+    <tableColumn id="2" xr3:uid="{4C63FD53-4E05-49BB-AE06-25A9EA64DA2A}" name="eff"/>
+    <tableColumn id="3" xr3:uid="{5F8FF70E-D2C0-49A0-8AE0-991399ADA1AA}" name="u"/>
+    <tableColumn id="4" xr3:uid="{2CB36EE8-CC8A-4E9E-A506-DCD96BBC92F2}" name="time /s"/>
+    <tableColumn id="5" xr3:uid="{9D6C63CC-25B7-465E-BA81-97F393A00604}" name="error" dataDxfId="0">
+      <calculatedColumnFormula>B76/B$5-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{8A97AEEF-A278-406A-9A09-82BAB22A8485}" name="L/keV-1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5200,10 +5250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6188,208 +6238,337 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" t="s">
-        <v>31</v>
-      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="E57" s="23"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>21</v>
-      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="E58" s="23"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
         <v>10</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B63" s="11">
         <v>0.99999990507450098</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C63" s="11">
         <v>9.0054235389743999E-8</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D63" s="7">
         <v>5.4687739999999998</v>
       </c>
-      <c r="E59" s="11">
-        <f t="shared" ref="E59:E62" si="7">B59/B$5-1</f>
+      <c r="E63" s="11">
+        <f t="shared" ref="E63:E66" si="7">B63/B$5-1</f>
         <v>2.6416066377851877E-2</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F63" s="12">
         <v>1.3788447930534999</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
         <v>20</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B64" s="13">
         <v>0.99759326286470595</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C64" s="13">
         <v>2.3457292431222801E-3</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D64" s="9">
         <v>11.343603</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E64" s="13">
         <f t="shared" si="7"/>
         <v>2.3945849913208583E-2</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F64" s="14">
         <v>1.38270283314251</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
         <v>50</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B65" s="11">
         <v>0.98596855589367005</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C65" s="11">
         <v>8.8425708328747996E-3</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D65" s="7">
         <v>28.603586</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E65" s="11">
         <f t="shared" si="7"/>
         <v>1.2014062778571866E-2</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F65" s="12">
         <v>0.85410197157480905</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
         <v>100</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B66" s="13">
         <v>0.98030188273837304</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C66" s="13">
         <v>9.45806051909002E-3</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D66" s="9">
         <v>55.921340999999998</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E66" s="13">
         <f t="shared" si="7"/>
         <v>6.1976978569415753E-3</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F66" s="14">
         <v>0.98030188273837304</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>1000</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B67" s="1">
         <v>0.97395221073226501</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C67" s="1">
         <v>4.4345580902809198E-3</v>
       </c>
-      <c r="D63">
+      <c r="D67">
         <v>556.997705</v>
       </c>
-      <c r="E63" s="1">
-        <f>B63/B$5-1</f>
+      <c r="E67" s="1">
+        <f>B67/B$5-1</f>
         <v>-3.1970812502546408E-4</v>
       </c>
-      <c r="F63">
+      <c r="F67">
         <v>1.05572808970182</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>2000</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B68" s="1">
         <v>0.97446988362571296</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C68" s="1">
         <v>2.96694676070435E-3</v>
       </c>
-      <c r="D64">
+      <c r="D68">
         <v>1113.903869</v>
       </c>
-      <c r="E64" s="23">
-        <f>B64/B$5-1</f>
+      <c r="E68" s="23">
+        <f>B68/B$5-1</f>
         <v>2.1163970037640922E-4</v>
       </c>
-      <c r="F64">
+      <c r="F68">
         <v>1.0143478195065401</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>3000</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B69" s="1">
         <v>0.96870112152713905</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C69" s="1">
         <v>2.7363097635930401E-3</v>
       </c>
-      <c r="D65">
+      <c r="D69">
         <v>1702.973512</v>
       </c>
-      <c r="E65" s="23">
-        <f>B65/B$5-1</f>
+      <c r="E69" s="23">
+        <f>B69/B$5-1</f>
         <v>-5.709510962779718E-3</v>
       </c>
-      <c r="F65">
+      <c r="F69">
         <v>1.0212862361646</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>5000</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B70" s="1">
         <v>0.97377741640645898</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C70" s="1">
         <v>1.90274375636109E-3</v>
       </c>
-      <c r="D66">
+      <c r="D70">
         <v>2867.006691</v>
       </c>
-      <c r="E66" s="23">
-        <f>B66/B$5-1</f>
+      <c r="E70" s="23">
+        <f>B70/B$5-1</f>
         <v>-4.9911984637518447E-4</v>
       </c>
-      <c r="F66">
+      <c r="F70">
         <v>1.0789649162858199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>10000</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.97301124279387396</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.3638326289617201E-3</v>
+      </c>
+      <c r="D71">
+        <v>5732.1051889999999</v>
+      </c>
+      <c r="E71" s="23">
+        <f>B71/B$5-1</f>
+        <v>-1.2855328266178079E-3</v>
+      </c>
+      <c r="F71">
+        <v>1.0902360504508699</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76">
+        <v>0.97281689239879499</v>
+      </c>
+      <c r="C76">
+        <v>1.3830518357971101E-3</v>
+      </c>
+      <c r="D76">
+        <v>5782.0920059999999</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" ref="E76" si="8">B76/B$5-1</f>
+        <v>-1.4850172135699724E-3</v>
+      </c>
+      <c r="F76">
+        <v>0.99187915307742403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77">
+        <v>0.96850391024865701</v>
+      </c>
+      <c r="C77">
+        <v>1.49731199923891E-3</v>
+      </c>
+      <c r="D77">
+        <v>5012.1046740000002</v>
+      </c>
+      <c r="E77" s="23">
+        <f t="shared" ref="E76:E78" si="9">B77/B$5-1</f>
+        <v>-5.9119318066995774E-3</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78">
+        <v>0.97255643046974405</v>
+      </c>
+      <c r="C78">
+        <v>1.38806657060112E-3</v>
+      </c>
+      <c r="D78">
+        <v>3161.9371609999998</v>
+      </c>
+      <c r="E78" s="23">
+        <f t="shared" si="9"/>
+        <v>-1.7523595476052201E-3</v>
+      </c>
+      <c r="F78">
+        <v>1.0981310341470401</v>
       </c>
     </row>
   </sheetData>
@@ -6397,10 +6576,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>